--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2410.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2410.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.048511967023929</v>
+        <v>1.220588684082031</v>
       </c>
       <c r="B1">
-        <v>2.159429411032814</v>
+        <v>2.022544622421265</v>
       </c>
       <c r="C1">
-        <v>9.578732928983582</v>
+        <v>4.369124412536621</v>
       </c>
       <c r="D1">
-        <v>1.888895142014777</v>
+        <v>2.979888200759888</v>
       </c>
       <c r="E1">
-        <v>0.9959672638531429</v>
+        <v>1.188058257102966</v>
       </c>
     </row>
   </sheetData>
